--- a/data/APT_BBOX.xlsx
+++ b/data/APT_BBOX.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spi\repos\pru-apt-dashboards\data-ad-charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdlange\repos\pru-apt-dashboards\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13650"/>
   </bookViews>
   <sheets>
-    <sheet name="Monitored" sheetId="1" r:id="rId1"/>
+    <sheet name="Monitored" sheetId="6" r:id="rId1"/>
     <sheet name="NO Monit." sheetId="3" r:id="rId2"/>
     <sheet name="All" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All!$A$1:$D$199</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Monitored!$A$1:$A$94</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'NO Monit.'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Monitored!$A$1:$D$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'NO Monit.'!$A$1:$D$106</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="703">
   <si>
     <t>AIRPORT</t>
   </si>
@@ -1921,13 +1921,232 @@
   </si>
   <si>
     <t>25.260916,54.613734,25.306835,54.656407</t>
+  </si>
+  <si>
+    <t>EGAA</t>
+  </si>
+  <si>
+    <t>EGNX</t>
+  </si>
+  <si>
+    <t>ESSB</t>
+  </si>
+  <si>
+    <t>GMMN</t>
+  </si>
+  <si>
+    <t>GMMX</t>
+  </si>
+  <si>
+    <t>LATI</t>
+  </si>
+  <si>
+    <t>LGIR</t>
+  </si>
+  <si>
+    <t>LGTS</t>
+  </si>
+  <si>
+    <t>LICJ</t>
+  </si>
+  <si>
+    <t>LLBG</t>
+  </si>
+  <si>
+    <t>LQSA</t>
+  </si>
+  <si>
+    <t>LTAC</t>
+  </si>
+  <si>
+    <t>LTBJ</t>
+  </si>
+  <si>
+    <t>LTFM</t>
+  </si>
+  <si>
+    <t>LUKK</t>
+  </si>
+  <si>
+    <t>LWSK</t>
+  </si>
+  <si>
+    <t>LYBE</t>
+  </si>
+  <si>
+    <t>LYPG</t>
+  </si>
+  <si>
+    <t>UDYZ</t>
+  </si>
+  <si>
+    <t>UGTB</t>
+  </si>
+  <si>
+    <t>UKBB</t>
+  </si>
+  <si>
+    <t>-6.2307874,54.6530112,-6.2171452,54.656309</t>
+  </si>
+  <si>
+    <t>East Midlands</t>
+  </si>
+  <si>
+    <t>-1.3677992081433767, 52.8208683070693, -1.2986103199183237, 52.83793074601031</t>
+  </si>
+  <si>
+    <t>17.922884881174983,59.34702079381313,17.960781631509217,59.36226009319299</t>
+  </si>
+  <si>
+    <t>Belfast/Aldergrove</t>
+  </si>
+  <si>
+    <t>Stockholm-Bromma</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Casablanca/Mohammed</t>
+  </si>
+  <si>
+    <t>Marrakech</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Tirana</t>
+  </si>
+  <si>
+    <t>Iraklion/Nikos/Kazantzakis</t>
+  </si>
+  <si>
+    <t>Makedonia</t>
+  </si>
+  <si>
+    <t>Palermo Punta Raisi</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Tel Aviv/Ben Gurion</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Sarajevo</t>
+  </si>
+  <si>
+    <t>Ankara-Esenboga</t>
+  </si>
+  <si>
+    <t>Izmir-Adnan-Menderes</t>
+  </si>
+  <si>
+    <t>ISTANBUL AIRPORT</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Kishinev</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Skopje</t>
+  </si>
+  <si>
+    <t>Serbia and Montenegro</t>
+  </si>
+  <si>
+    <t>Surcin-Beograd</t>
+  </si>
+  <si>
+    <t>Podgorica</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>YEREVAN</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>TBILISI/TBILISI</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Kiev - Borispol</t>
+  </si>
+  <si>
+    <t>-7.602493428703028,33.34008687487736,-7.563919591069356,33.401997094284816</t>
+  </si>
+  <si>
+    <t>-8.061714552025558,31.599868748094718,-8.014133976192284,31.613670797143072</t>
+  </si>
+  <si>
+    <t>19.705571999457952,41.39682783034025,19.727612765579767,41.43188322421234</t>
+  </si>
+  <si>
+    <t>25.159477269495508,35.33348720342072,25.193451619655004,35.345749591873876</t>
+  </si>
+  <si>
+    <t>22.944084548953608,40.50372367530323,22.993404763648126,40.53352758679412</t>
+  </si>
+  <si>
+    <t>13.080241625724485,38.162957801566186,13.125306792438655,38.19223405446135</t>
+  </si>
+  <si>
+    <t>34.851945675983984,31.987551478935682,34.906065083579136,32.0223995655629</t>
+  </si>
+  <si>
+    <t>18.309283073230088,43.817516851620184,18.34806880616647,43.83431038407557</t>
+  </si>
+  <si>
+    <t>32.97489997598194,40.109503572942096,33.01969672042376,40.14479468944262</t>
+  </si>
+  <si>
+    <t>27.144017209800406,38.27556039238363,27.163510134518834,38.3106813268192</t>
+  </si>
+  <si>
+    <t>28.901137860683168,46.92497168776491,28.956586784322326,46.93732976415912</t>
+  </si>
+  <si>
+    <t>21.611605220054766,41.94536245266918,21.629679516121897,41.97665332560636</t>
+  </si>
+  <si>
+    <t>20.284607255749265,44.8030359348147,20.33270687415867,44.83295699575433</t>
+  </si>
+  <si>
+    <t>44.36140611574056,40.14191495568612,44.425835497529356,40.15530872012554</t>
+  </si>
+  <si>
+    <t>44.93920419934738,41.656031827063444,44.969055480056646,41.683667164808895</t>
+  </si>
+  <si>
+    <t>30.873351614596892,50.31131593855922,30.91996122306753,50.37044504860175</t>
+  </si>
+  <si>
+    <t>28.695963168811684,41.245483920939236,28.763955463839046,41.30349944557763</t>
+  </si>
+  <si>
+    <t>19.23861751012485,42.343837053533804,19.257075937674294,42.375038728663945</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1943,8 +2162,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1963,6 +2189,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1973,34 +2210,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FF999999"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FF999999"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF999999"/>
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color rgb="FF999999"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2011,96 +2255,39 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF999999"/>
-        </left>
-        <top style="thin">
-          <color rgb="FF999999"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF999999"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF999999"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2111,17 +2298,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:D94" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <tableColumns count="3">
-    <tableColumn id="1" name="AIRPORT" dataDxfId="2"/>
-    <tableColumn id="3" name="APT_NAME" dataDxfId="1"/>
-    <tableColumn id="4" name="BBOX" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2387,1344 +2563,1747 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="6" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="6" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="6" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="13" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="6" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="6" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="6" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="6" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="6" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="6" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="6" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="6" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="6" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="6" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="6" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="6" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="6" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="6" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="6" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="6" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="6" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="6" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="6" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="6" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="6" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="6" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="6" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="6" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="6" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="6" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="6" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="6" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="6" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="6" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="6" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="6" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="6" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="6" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="6" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="6" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="6" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="6" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="6" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="6" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="6" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="6" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="6" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="6" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="6" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="6" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="6" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" s="8" t="s">
+      <c r="A64" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="6" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B65" s="8" t="s">
+      <c r="A65" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="6" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B66" s="8" t="s">
+      <c r="A66" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="6" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B67" s="8" t="s">
+      <c r="A67" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="6" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B68" s="8" t="s">
+      <c r="A68" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="6" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" s="8" t="s">
+      <c r="A69" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="6" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" s="8" t="s">
+      <c r="A70" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="6" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="6" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="6" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="6" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="6" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="6" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="6" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="6" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="6" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="6" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="6" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="6" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="6" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="6" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="6" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="6" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="6" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="6" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="6" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="6" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="6" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="6" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="6" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="6" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="6" t="s">
         <v>521</v>
       </c>
     </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>700</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A94"/>
+  <autoFilter ref="A1:D123"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3732,1504 +4311,1505 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="8" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="8" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="8" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="8" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="8" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="8" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="8" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="8" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="10" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="10" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="10" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="10" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="10" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="10" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="10" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="10" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="10" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="10" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="11" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="10" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="10" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="10" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="10" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="10" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="10" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="10" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="10" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="10" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="10" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="10" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="10" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="10" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="10" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="10" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="10" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="10" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="10" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="10" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="A45" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="10" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="10" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="10" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="10" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="10" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="10" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A51" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="10" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="A52" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="10" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="A53" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="10" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="10" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="A55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="10" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="A56" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="10" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="A57" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="10" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="A58" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="10" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="A59" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="10" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="A60" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="10" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="A61" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="10" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="A62" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="10" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="A63" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="10" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="A64" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="10" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="A65" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="10" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="A66" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="10" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B67" s="2" t="s">
+      <c r="A67" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="10" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="8" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="8" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="8" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="8" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="8" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="8" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="8" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="8" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="8" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="8" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="8" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="8" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="8" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="8" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="8" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="8" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="8" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="8" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="8" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="8" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="8" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="8" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="8" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="8" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="8" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="8" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="8" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="8" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="8" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="8" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="8" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="8" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="8" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="8" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="8" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="8" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="8" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="8" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="8" t="s">
         <v>627</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D106"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5239,2800 +5819,2801 @@
   <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="12" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="8" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="8" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="8" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="8" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="8" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="8" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="8" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="8" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="8" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="8" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="8" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="8" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="8" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="8" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="8" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="8" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="8" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="8" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="8" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="8" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="8" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="8" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="8" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="8" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="8" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="8" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="8" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="8" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="8" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="8" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="8" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="8" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="8" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="8" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="8" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="8" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="8" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="8" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="8" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="8" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="8" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="8" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="8" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="8" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="8" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="8" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="8" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="8" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="8" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="8" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="8" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="8" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="8" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="8" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="8" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="8" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="8" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="8" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="8" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="8" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="8" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="8" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="8" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="8" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="8" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="8" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="8" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="8" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="8" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="8" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="8" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="8" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="8" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="8" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="8" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="8" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="8" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="8" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="8" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="8" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="8" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="8" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="8" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="8" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="8" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="8" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B95" s="2" t="s">
+      <c r="A95" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="10" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B96" s="2" t="s">
+      <c r="A96" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="10" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B97" s="2" t="s">
+      <c r="A97" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="10" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B98" s="2" t="s">
+      <c r="A98" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="10" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B99" s="2" t="s">
+      <c r="A99" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="10" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B100" s="2" t="s">
+      <c r="A100" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="10" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B101" s="2" t="s">
+      <c r="A101" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="10" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B102" s="2" t="s">
+      <c r="A102" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="10" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B103" s="2" t="s">
+      <c r="A103" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="10" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B104" s="2" t="s">
+      <c r="A104" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="10" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B105" s="2" t="s">
+      <c r="A105" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="10" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B106" s="2" t="s">
+      <c r="A106" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="11" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B107" s="2" t="s">
+      <c r="A107" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="10" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B108" s="2" t="s">
+      <c r="A108" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="10" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B109" s="2" t="s">
+      <c r="A109" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="10" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B110" s="2" t="s">
+      <c r="A110" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="10" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B111" s="2" t="s">
+      <c r="A111" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="10" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B112" s="2" t="s">
+      <c r="A112" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="10" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B113" s="2" t="s">
+      <c r="A113" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="10" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B114" s="2" t="s">
+      <c r="A114" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="10" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B115" s="2" t="s">
+      <c r="A115" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="10" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B116" s="2" t="s">
+      <c r="A116" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B116" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="10" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B117" s="2" t="s">
+      <c r="A117" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="10" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B118" s="2" t="s">
+      <c r="A118" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="10" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B119" s="2" t="s">
+      <c r="A119" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="10" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B120" s="2" t="s">
+      <c r="A120" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="10" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B121" s="2" t="s">
+      <c r="A121" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="10" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B122" s="2" t="s">
+      <c r="A122" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="10" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B123" s="2" t="s">
+      <c r="A123" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="10" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B124" s="2" t="s">
+      <c r="A124" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="10" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B125" s="2" t="s">
+      <c r="A125" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="10" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B126" s="2" t="s">
+      <c r="A126" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="10" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B127" s="2" t="s">
+      <c r="A127" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="10" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B128" s="2" t="s">
+      <c r="A128" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B128" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="10" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B129" s="2" t="s">
+      <c r="A129" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="10" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B130" s="2" t="s">
+      <c r="A130" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B130" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="10" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B131" s="2" t="s">
+      <c r="A131" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="10" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B132" s="2" t="s">
+      <c r="A132" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="10" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B133" s="2" t="s">
+      <c r="A133" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="10" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B134" s="2" t="s">
+      <c r="A134" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="10" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B135" s="2" t="s">
+      <c r="A135" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="10" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B136" s="2" t="s">
+      <c r="A136" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="10" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B137" s="2" t="s">
+      <c r="A137" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="10" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B138" s="2" t="s">
+      <c r="A138" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="10" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B139" s="2" t="s">
+      <c r="A139" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="10" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140" s="2" t="s">
+      <c r="A140" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="10" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B141" s="2" t="s">
+      <c r="A141" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="10" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B142" s="2" t="s">
+      <c r="A142" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="10" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143" s="2" t="s">
+      <c r="A143" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="10" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144" s="2" t="s">
+      <c r="A144" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="10" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B145" s="2" t="s">
+      <c r="A145" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="10" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B146" s="2" t="s">
+      <c r="A146" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="10" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B147" s="2" t="s">
+      <c r="A147" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="10" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B148" s="2" t="s">
+      <c r="A148" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B148" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="10" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B149" s="2" t="s">
+      <c r="A149" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B149" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="10" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B150" s="2" t="s">
+      <c r="A150" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B150" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="10" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B151" s="2" t="s">
+      <c r="A151" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B151" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="10" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B152" s="2" t="s">
+      <c r="A152" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="10" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B153" s="2" t="s">
+      <c r="A153" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="10" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B154" s="2" t="s">
+      <c r="A154" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B154" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="10" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="8" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="8" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="8" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D158" s="8" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="8" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="8" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D161" s="8" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="8" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="8" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D164" s="8" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="8" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="8" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="8" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="8" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="8" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="8" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="8" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="8" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="8" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="8" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" s="10" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="10" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" s="10" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D178" s="10" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="10" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" s="10" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181" s="8" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D182" s="8" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D183" s="8" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D184" s="8" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="D185" s="8" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D186" s="8" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="D187" s="8" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D188" s="8" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="D189" s="8" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="D190" s="5" t="s">
+      <c r="D190" s="8" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="D191" s="8" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="D192" s="5" t="s">
+      <c r="D192" s="8" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="D193" s="8" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D194" s="8" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="D195" s="10" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D196" s="5" t="s">
+      <c r="D196" s="8" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="D197" s="5" t="s">
+      <c r="D197" s="8" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="D198" s="5" t="s">
+      <c r="D198" s="8" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="D199" s="8" t="s">
         <v>519</v>
       </c>
     </row>
@@ -8044,18 +8625,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8173,6 +8754,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01A91219-5C2C-423A-833B-AB294380AD1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F5E297-07EC-486E-A691-9ACD12C364A4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8183,14 +8772,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01A91219-5C2C-423A-833B-AB294380AD1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
